--- a/database_structure.xlsx
+++ b/database_structure.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\WDW-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14498" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -150,26 +150,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Product_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,13 +199,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,17 +480,20 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,12 +510,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -536,12 +541,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -561,12 +566,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -580,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -594,7 +599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>18</v>
       </c>
